--- a/data/pca/factorExposure/factorExposure_2017-05-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-05-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02266803008575847</v>
+        <v>0.009499112138792901</v>
       </c>
       <c r="C2">
-        <v>-0.008068274044569999</v>
+        <v>0.04304207009204773</v>
       </c>
       <c r="D2">
-        <v>0.03006289244470862</v>
+        <v>0.02964307534580669</v>
       </c>
       <c r="E2">
-        <v>-0.00555961601795371</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03137822707130451</v>
+      </c>
+      <c r="F2">
+        <v>-0.00909771473034207</v>
+      </c>
+      <c r="G2">
+        <v>0.09704760571074141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01863383238367741</v>
+        <v>0.04312237574298096</v>
       </c>
       <c r="C3">
-        <v>0.01828326096003371</v>
+        <v>0.1023151355062413</v>
       </c>
       <c r="D3">
-        <v>0.1066855367375984</v>
+        <v>0.01780536112186261</v>
       </c>
       <c r="E3">
-        <v>-0.05949394822885882</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.09785637829883502</v>
+      </c>
+      <c r="F3">
+        <v>-0.0008257795446783285</v>
+      </c>
+      <c r="G3">
+        <v>0.1913289215301113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02482332315014492</v>
+        <v>0.05497023389050355</v>
       </c>
       <c r="C4">
-        <v>0.0006170988184406692</v>
+        <v>0.06760530611443427</v>
       </c>
       <c r="D4">
-        <v>0.08539500195078491</v>
+        <v>0.0243981305587581</v>
       </c>
       <c r="E4">
-        <v>0.00525560528475785</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.02695328733940143</v>
+      </c>
+      <c r="F4">
+        <v>-0.01141553099823198</v>
+      </c>
+      <c r="G4">
+        <v>0.09910987038278728</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.0118430381354954</v>
+        <v>0.03627672651188769</v>
       </c>
       <c r="C6">
-        <v>-0.01330082878799478</v>
+        <v>0.05223882691875506</v>
       </c>
       <c r="D6">
-        <v>0.07873958398851086</v>
+        <v>0.0168523171922977</v>
       </c>
       <c r="E6">
-        <v>0.007641254582847114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.03189464326045855</v>
+      </c>
+      <c r="F6">
+        <v>-0.01075739366186742</v>
+      </c>
+      <c r="G6">
+        <v>0.08061190277122318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.0110197778043848</v>
+        <v>0.02067687129245999</v>
       </c>
       <c r="C7">
-        <v>-0.0024739059530388</v>
+        <v>0.04138881012926561</v>
       </c>
       <c r="D7">
-        <v>0.0440116164902678</v>
+        <v>0.01354073689406072</v>
       </c>
       <c r="E7">
-        <v>0.0321916788738083</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.003501216637955888</v>
+      </c>
+      <c r="F7">
+        <v>0.003910335822522131</v>
+      </c>
+      <c r="G7">
+        <v>0.1258243465996414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.000335992734914568</v>
+        <v>0.003339407954656125</v>
       </c>
       <c r="C8">
-        <v>-0.001563352499274957</v>
+        <v>0.02467887896451688</v>
       </c>
       <c r="D8">
-        <v>0.00399258099873945</v>
+        <v>0.003921698598342509</v>
       </c>
       <c r="E8">
-        <v>0.001496412874366453</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02376361877964715</v>
+      </c>
+      <c r="F8">
+        <v>-0.007028715586112019</v>
+      </c>
+      <c r="G8">
+        <v>0.07051694489967747</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.0167168610864509</v>
+        <v>0.03299298508536481</v>
       </c>
       <c r="C9">
-        <v>0.002504385667797213</v>
+        <v>0.04878390839880533</v>
       </c>
       <c r="D9">
-        <v>0.06173621882202675</v>
+        <v>0.01649037916860573</v>
       </c>
       <c r="E9">
-        <v>-0.00134369159372845</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01652070697085969</v>
+      </c>
+      <c r="F9">
+        <v>-0.007992778408442988</v>
+      </c>
+      <c r="G9">
+        <v>0.09761346562881719</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.05802499000241698</v>
+        <v>0.09923397188900704</v>
       </c>
       <c r="C10">
-        <v>0.1804002598478231</v>
+        <v>-0.1811184933868099</v>
       </c>
       <c r="D10">
-        <v>-0.08814247872587182</v>
+        <v>-0.01518152218342269</v>
       </c>
       <c r="E10">
-        <v>-0.03266357627456912</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01901656214915756</v>
+      </c>
+      <c r="F10">
+        <v>0.02339004933447124</v>
+      </c>
+      <c r="G10">
+        <v>0.06085207190948477</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0009337779204026146</v>
+        <v>0.03479356905929736</v>
       </c>
       <c r="C11">
-        <v>-0.006141208456316355</v>
+        <v>0.05429956130142991</v>
       </c>
       <c r="D11">
-        <v>0.05610175571986677</v>
+        <v>0.002226542020049689</v>
       </c>
       <c r="E11">
-        <v>-0.002141350287912719</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.01003174067290085</v>
+      </c>
+      <c r="F11">
+        <v>-0.02177770307554028</v>
+      </c>
+      <c r="G11">
+        <v>0.08938648758917035</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.004571741422064881</v>
+        <v>0.03651362299944223</v>
       </c>
       <c r="C12">
-        <v>-0.004195955730227586</v>
+        <v>0.04925905280183309</v>
       </c>
       <c r="D12">
-        <v>0.05174117622201582</v>
+        <v>0.006266650411454127</v>
       </c>
       <c r="E12">
-        <v>0.01114324565871556</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.003195973579695566</v>
+      </c>
+      <c r="F12">
+        <v>-0.002464654098032724</v>
+      </c>
+      <c r="G12">
+        <v>0.08370872986830225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02408918361635247</v>
+        <v>0.01616824960692868</v>
       </c>
       <c r="C13">
-        <v>0.003010561203708297</v>
+        <v>0.04105213883797528</v>
       </c>
       <c r="D13">
-        <v>0.03704639916058431</v>
+        <v>0.02615969113570054</v>
       </c>
       <c r="E13">
-        <v>-0.02271738087867785</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.02983225607174465</v>
+      </c>
+      <c r="F13">
+        <v>-0.005691341976580479</v>
+      </c>
+      <c r="G13">
+        <v>0.1273563717339855</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.00967361257184845</v>
+        <v>0.008676225373366478</v>
       </c>
       <c r="C14">
-        <v>0.006300953031476562</v>
+        <v>0.02911601531581598</v>
       </c>
       <c r="D14">
-        <v>0.01942512279267013</v>
+        <v>0.009885654368472094</v>
       </c>
       <c r="E14">
-        <v>-0.004334836080136568</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.002725149936534576</v>
+      </c>
+      <c r="F14">
+        <v>0.008232892283405516</v>
+      </c>
+      <c r="G14">
+        <v>0.1024853141599499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.001818614833430306</v>
+        <v>0.03324254183967759</v>
       </c>
       <c r="C16">
-        <v>0.002793768654011632</v>
+        <v>0.04759098990104574</v>
       </c>
       <c r="D16">
-        <v>0.04682453335707275</v>
+        <v>0.001794402677283317</v>
       </c>
       <c r="E16">
-        <v>0.00805088198188314</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.009066956347126679</v>
+      </c>
+      <c r="F16">
+        <v>-0.003766081547312691</v>
+      </c>
+      <c r="G16">
+        <v>0.09194361446587222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01320808057455676</v>
+        <v>0.02174954526867258</v>
       </c>
       <c r="C19">
-        <v>-0.002203081004470731</v>
+        <v>0.05454690807426425</v>
       </c>
       <c r="D19">
-        <v>0.04997436800670878</v>
+        <v>0.01884840315401932</v>
       </c>
       <c r="E19">
-        <v>-0.003300732840085043</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.06934217894870397</v>
+      </c>
+      <c r="F19">
+        <v>-0.01943825661191473</v>
+      </c>
+      <c r="G19">
+        <v>0.1373301326883804</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.0106656239233354</v>
+        <v>0.01519948296954875</v>
       </c>
       <c r="C20">
-        <v>-0.002322794107400222</v>
+        <v>0.04000108388165718</v>
       </c>
       <c r="D20">
-        <v>0.03600061969546395</v>
+        <v>0.01409040096920345</v>
       </c>
       <c r="E20">
-        <v>-0.03131259724169989</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02987467142901199</v>
+      </c>
+      <c r="F20">
+        <v>0.01227707503568767</v>
+      </c>
+      <c r="G20">
+        <v>0.1092649345682121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01533776980713802</v>
+        <v>0.01250172993278958</v>
       </c>
       <c r="C21">
-        <v>0.003533108947194121</v>
+        <v>0.04014185565676232</v>
       </c>
       <c r="D21">
-        <v>0.0381517505481249</v>
+        <v>0.01880970428856111</v>
       </c>
       <c r="E21">
-        <v>-0.009243834278840313</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.04242668112599459</v>
+      </c>
+      <c r="F21">
+        <v>-0.002775537978776227</v>
+      </c>
+      <c r="G21">
+        <v>0.133959756324195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001073735170919299</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0002515499604050596</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.0004118640036795503</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.001565781268707937</v>
+      </c>
+      <c r="F22">
+        <v>-0.001183391261596424</v>
+      </c>
+      <c r="G22">
+        <v>0.00328562035004921</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001078084658158798</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0002511203931949172</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.0004119820977460764</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.001571448239913313</v>
+      </c>
+      <c r="F23">
+        <v>-0.001181899786643256</v>
+      </c>
+      <c r="G23">
+        <v>0.003298621011305755</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.002107076436923717</v>
+        <v>0.02892547568804835</v>
       </c>
       <c r="C24">
-        <v>-0.01030707188565225</v>
+        <v>0.05182877789650221</v>
       </c>
       <c r="D24">
-        <v>0.05027898801053666</v>
+        <v>0.007012995065941885</v>
       </c>
       <c r="E24">
-        <v>0.008040724259206685</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.005752908454943709</v>
+      </c>
+      <c r="F24">
+        <v>-0.01314376978897141</v>
+      </c>
+      <c r="G24">
+        <v>0.09007406778759962</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01261513079386398</v>
+        <v>0.0431569252384309</v>
       </c>
       <c r="C25">
-        <v>0.003153277317579686</v>
+        <v>0.05911061640670256</v>
       </c>
       <c r="D25">
-        <v>0.0610676660873792</v>
+        <v>0.01104616629946522</v>
       </c>
       <c r="E25">
-        <v>0.01009808234064981</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.001582831452923853</v>
+      </c>
+      <c r="F25">
+        <v>-0.006202567752547953</v>
+      </c>
+      <c r="G25">
+        <v>0.1003405192718628</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02271812529919471</v>
+        <v>0.01416938132809993</v>
       </c>
       <c r="C26">
-        <v>-0.002008233176760858</v>
+        <v>0.01145361718277072</v>
       </c>
       <c r="D26">
-        <v>0.002984822381147391</v>
+        <v>0.02398572256434704</v>
       </c>
       <c r="E26">
-        <v>0.001102680144239557</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.007037232079337934</v>
+      </c>
+      <c r="F26">
+        <v>0.008129793914496405</v>
+      </c>
+      <c r="G26">
+        <v>0.08154035423917755</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.09066583761133852</v>
+        <v>0.1261879705058917</v>
       </c>
       <c r="C28">
-        <v>0.2354639590983484</v>
+        <v>-0.2375441522883316</v>
       </c>
       <c r="D28">
-        <v>-0.1084105583451641</v>
+        <v>-0.00604375669517945</v>
       </c>
       <c r="E28">
-        <v>-0.002017241553330894</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.004842832100254265</v>
+      </c>
+      <c r="F28">
+        <v>0.01527137821904142</v>
+      </c>
+      <c r="G28">
+        <v>0.05279253987905879</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01116907667037392</v>
+        <v>0.009344883572924758</v>
       </c>
       <c r="C29">
-        <v>0.0113012761473161</v>
+        <v>0.02282958420919025</v>
       </c>
       <c r="D29">
-        <v>0.02067529379329757</v>
+        <v>0.008933463974686508</v>
       </c>
       <c r="E29">
-        <v>-0.006747205015110536</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.0008264554010106722</v>
+      </c>
+      <c r="F29">
+        <v>0.01706724552733012</v>
+      </c>
+      <c r="G29">
+        <v>0.09538826377171587</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02033201382120151</v>
+        <v>0.04072504493997187</v>
       </c>
       <c r="C30">
-        <v>-0.01867776009049801</v>
+        <v>0.06886549205451063</v>
       </c>
       <c r="D30">
-        <v>0.09666403155540843</v>
+        <v>0.0287921430449798</v>
       </c>
       <c r="E30">
-        <v>-0.03329146234801072</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.05332869424302079</v>
+      </c>
+      <c r="F30">
+        <v>-0.04684338801285554</v>
+      </c>
+      <c r="G30">
+        <v>0.1136204404133587</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.0142952733597516</v>
+        <v>0.05321135526736179</v>
       </c>
       <c r="C31">
-        <v>0.02536935319407981</v>
+        <v>0.0379570817193786</v>
       </c>
       <c r="D31">
-        <v>0.03959413276998892</v>
+        <v>0.003699295926255185</v>
       </c>
       <c r="E31">
-        <v>-0.000930242539555459</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.001826327915118286</v>
+      </c>
+      <c r="F31">
+        <v>0.04072090680082897</v>
+      </c>
+      <c r="G31">
+        <v>0.09733529818497405</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.001884731281944731</v>
+        <v>0.002065309924296788</v>
       </c>
       <c r="C32">
-        <v>0.01946686461668393</v>
+        <v>0.0250115299506823</v>
       </c>
       <c r="D32">
-        <v>0.009653473218544371</v>
+        <v>-0.003570333712391784</v>
       </c>
       <c r="E32">
-        <v>0.03532059775027445</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01960508403147221</v>
+      </c>
+      <c r="F32">
+        <v>-0.03841689468233398</v>
+      </c>
+      <c r="G32">
+        <v>0.09054926975216185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01287110704676796</v>
+        <v>0.02771429926205977</v>
       </c>
       <c r="C33">
-        <v>0.001814549557904442</v>
+        <v>0.05006486116496881</v>
       </c>
       <c r="D33">
-        <v>0.04203344086943697</v>
+        <v>0.01562981289751325</v>
       </c>
       <c r="E33">
-        <v>-0.02330525928984522</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.03624982494573065</v>
+      </c>
+      <c r="F33">
+        <v>-0.016876532874031</v>
+      </c>
+      <c r="G33">
+        <v>0.1525837756552269</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.002188012175192185</v>
+        <v>0.04063856798703742</v>
       </c>
       <c r="C34">
-        <v>0.00983317758715823</v>
+        <v>0.0612073766333058</v>
       </c>
       <c r="D34">
-        <v>0.05993185061174135</v>
+        <v>-0.004869434096325803</v>
       </c>
       <c r="E34">
-        <v>0.01988366369248716</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.0003267935364217079</v>
+      </c>
+      <c r="F34">
+        <v>-0.0203215423478049</v>
+      </c>
+      <c r="G34">
+        <v>0.09639546191004303</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01482850730767217</v>
+        <v>0.01631497962290756</v>
       </c>
       <c r="C36">
-        <v>0.01028140495469218</v>
+        <v>0.009642844628317189</v>
       </c>
       <c r="D36">
-        <v>0.007593416313114155</v>
+        <v>0.01233585479107516</v>
       </c>
       <c r="E36">
-        <v>0.001667122642945254</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.00454766864605839</v>
+      </c>
+      <c r="F36">
+        <v>0.006675097826323774</v>
+      </c>
+      <c r="G36">
+        <v>0.08953946672779098</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.001193382525037569</v>
+        <v>0.03186164709165814</v>
       </c>
       <c r="C38">
-        <v>0.02408332803015598</v>
+        <v>0.03143652820293118</v>
       </c>
       <c r="D38">
-        <v>0.05015387464934112</v>
+        <v>-0.007642112469741553</v>
       </c>
       <c r="E38">
-        <v>0.004045668781590696</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.002363047907112549</v>
+      </c>
+      <c r="F38">
+        <v>0.02090158749111571</v>
+      </c>
+      <c r="G38">
+        <v>0.08331597223538641</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.0021920378377295</v>
+        <v>0.03643117451222459</v>
       </c>
       <c r="C39">
-        <v>-0.03459223044364222</v>
+        <v>0.08141798624213689</v>
       </c>
       <c r="D39">
-        <v>0.1003419102682867</v>
+        <v>0.01154548275028345</v>
       </c>
       <c r="E39">
-        <v>-0.01413536268930885</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02169798772336026</v>
+      </c>
+      <c r="F39">
+        <v>-0.02469126502338391</v>
+      </c>
+      <c r="G39">
+        <v>0.0878633410375384</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01283015174141061</v>
+        <v>0.01427477885393861</v>
       </c>
       <c r="C40">
-        <v>0.003601016475119464</v>
+        <v>0.04229420096215374</v>
       </c>
       <c r="D40">
-        <v>0.04127233983789004</v>
+        <v>0.01465793394990146</v>
       </c>
       <c r="E40">
-        <v>0.01537408269009508</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.01894165477991844</v>
+      </c>
+      <c r="F40">
+        <v>0.0167512839422488</v>
+      </c>
+      <c r="G40">
+        <v>0.1247048160863708</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01048500914579067</v>
+        <v>0.02094630432342946</v>
       </c>
       <c r="C41">
-        <v>0.02075021977757839</v>
+        <v>0.002440746101910518</v>
       </c>
       <c r="D41">
-        <v>-0.009401195057647671</v>
+        <v>0.004164762431359795</v>
       </c>
       <c r="E41">
-        <v>0.008978647225926003</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.002823860058635619</v>
+      </c>
+      <c r="F41">
+        <v>0.01585442113183448</v>
+      </c>
+      <c r="G41">
+        <v>0.07938413226016687</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.0833501804979834</v>
+        <v>0.008997204004579231</v>
       </c>
       <c r="C42">
-        <v>-0.04925469810571287</v>
+        <v>0.02969327374883647</v>
       </c>
       <c r="D42">
-        <v>0.1402777992048964</v>
+        <v>0.09017073512623935</v>
       </c>
       <c r="E42">
-        <v>-0.2408063804772569</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.01552396701553809</v>
+      </c>
+      <c r="F42">
+        <v>0.03774591750434794</v>
+      </c>
+      <c r="G42">
+        <v>-0.08833811483560033</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.01125286999894171</v>
+        <v>0.03483553830897407</v>
       </c>
       <c r="C43">
-        <v>0.02028896230683294</v>
+        <v>0.01814489869957391</v>
       </c>
       <c r="D43">
-        <v>-0.004513048850263615</v>
+        <v>0.005891949113075558</v>
       </c>
       <c r="E43">
-        <v>0.01361245754830061</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.0169770394634896</v>
+      </c>
+      <c r="F43">
+        <v>0.005027507116004434</v>
+      </c>
+      <c r="G43">
+        <v>0.1165350208395343</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.001503555282692685</v>
+        <v>0.0127757441354136</v>
       </c>
       <c r="C44">
-        <v>-0.00610007543730519</v>
+        <v>0.05914655880049999</v>
       </c>
       <c r="D44">
-        <v>0.05522909369364225</v>
+        <v>0.006763286019551471</v>
       </c>
       <c r="E44">
-        <v>0.009822427794977346</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.0184360512722523</v>
+      </c>
+      <c r="F44">
+        <v>0.007004159300550819</v>
+      </c>
+      <c r="G44">
+        <v>0.1049249322615906</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01215234760828793</v>
+        <v>0.007753635310994959</v>
       </c>
       <c r="C46">
-        <v>0.005199732848509619</v>
+        <v>0.01736213842837676</v>
       </c>
       <c r="D46">
-        <v>0.006042904086233276</v>
+        <v>0.01258736984635525</v>
       </c>
       <c r="E46">
-        <v>-0.01001527822003593</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.0008852434421880586</v>
+      </c>
+      <c r="F46">
+        <v>0.01585986164142929</v>
+      </c>
+      <c r="G46">
+        <v>0.1002382010172509</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.01023983282314258</v>
+        <v>0.07725689637518839</v>
       </c>
       <c r="C47">
-        <v>0.03309199535331109</v>
+        <v>0.06752098245726045</v>
       </c>
       <c r="D47">
-        <v>0.07793077945663902</v>
+        <v>-0.005094607391794636</v>
       </c>
       <c r="E47">
-        <v>0.01364316118913415</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.007081512299624324</v>
+      </c>
+      <c r="F47">
+        <v>0.05514744370978403</v>
+      </c>
+      <c r="G47">
+        <v>0.08507454871713258</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.006010368552502352</v>
+        <v>0.01950317808120061</v>
       </c>
       <c r="C48">
-        <v>0.01316450608040615</v>
+        <v>0.01278392452727775</v>
       </c>
       <c r="D48">
-        <v>0.02072262663831886</v>
+        <v>0.001932503564797893</v>
       </c>
       <c r="E48">
-        <v>-0.003388782065656276</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.002245962291726952</v>
+      </c>
+      <c r="F48">
+        <v>0.0198155160377421</v>
+      </c>
+      <c r="G48">
+        <v>0.09254153186931752</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.01248334571772222</v>
+        <v>0.075045025745814</v>
       </c>
       <c r="C50">
-        <v>0.03417849500309603</v>
+        <v>0.07260957989198769</v>
       </c>
       <c r="D50">
-        <v>0.07533303513246552</v>
+        <v>-0.002362626785207861</v>
       </c>
       <c r="E50">
-        <v>0.02425606530658784</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.006038509212038416</v>
+      </c>
+      <c r="F50">
+        <v>0.05568396699035695</v>
+      </c>
+      <c r="G50">
+        <v>0.09672547990468733</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.008594049994999778</v>
+        <v>0.0146865878305013</v>
       </c>
       <c r="C51">
-        <v>0.006366653562973452</v>
+        <v>0.0368786187972681</v>
       </c>
       <c r="D51">
-        <v>0.02346782917323345</v>
+        <v>0.01050468474069961</v>
       </c>
       <c r="E51">
-        <v>0.006056230795825645</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01933777051378443</v>
+      </c>
+      <c r="F51">
+        <v>-0.02269667322807907</v>
+      </c>
+      <c r="G51">
+        <v>0.1253087439654789</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.01237272404264868</v>
+        <v>0.08179630623840259</v>
       </c>
       <c r="C53">
-        <v>0.03011989567652979</v>
+        <v>0.08583728715235339</v>
       </c>
       <c r="D53">
-        <v>0.1347689888829644</v>
+        <v>-0.003478347591550362</v>
       </c>
       <c r="E53">
-        <v>0.02413437544268835</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02449186040430164</v>
+      </c>
+      <c r="F53">
+        <v>0.06593370458441207</v>
+      </c>
+      <c r="G53">
+        <v>0.08790323889240252</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01006380151960639</v>
+        <v>0.03253732073263047</v>
       </c>
       <c r="C54">
-        <v>0.03861341842315557</v>
+        <v>0.01765612266218951</v>
       </c>
       <c r="D54">
-        <v>0.001483090924382407</v>
+        <v>-0.001638317976303767</v>
       </c>
       <c r="E54">
-        <v>-0.02023062724699578</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01351570963309189</v>
+      </c>
+      <c r="F54">
+        <v>0.004733676179153999</v>
+      </c>
+      <c r="G54">
+        <v>0.1042159651764656</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.006232372168956761</v>
+        <v>0.07181370504054797</v>
       </c>
       <c r="C55">
-        <v>0.01757267909932087</v>
+        <v>0.06890493485381372</v>
       </c>
       <c r="D55">
-        <v>0.1082659766476401</v>
+        <v>-0.005063648360916727</v>
       </c>
       <c r="E55">
-        <v>0.006800430131150984</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02191384636938301</v>
+      </c>
+      <c r="F55">
+        <v>0.06299182353969512</v>
+      </c>
+      <c r="G55">
+        <v>0.06243892040172486</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.01433799719784172</v>
+        <v>0.1372250988929054</v>
       </c>
       <c r="C56">
-        <v>0.04818083729180764</v>
+        <v>0.1085978853742127</v>
       </c>
       <c r="D56">
-        <v>0.1663127772710623</v>
+        <v>-0.01261993086400203</v>
       </c>
       <c r="E56">
-        <v>0.03389450773588665</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03121479391142695</v>
+      </c>
+      <c r="F56">
+        <v>0.08110178742947112</v>
+      </c>
+      <c r="G56">
+        <v>0.03702393307883906</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02435742582151932</v>
+        <v>0.005654810490858843</v>
       </c>
       <c r="C57">
-        <v>-0.001226386974025991</v>
+        <v>0.007190278780714586</v>
       </c>
       <c r="D57">
-        <v>0.03670971670615564</v>
+        <v>0.02339630951011398</v>
       </c>
       <c r="E57">
-        <v>-0.04278531757972551</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02494104523857569</v>
+      </c>
+      <c r="F57">
+        <v>-0.01093876700564953</v>
+      </c>
+      <c r="G57">
+        <v>0.02802499547051682</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01781097984393507</v>
+        <v>0.05189212154873129</v>
       </c>
       <c r="C58">
-        <v>0.03744591483252758</v>
+        <v>0.04858591344353715</v>
       </c>
       <c r="D58">
-        <v>0.1411130094937895</v>
+        <v>0.02345396006986051</v>
       </c>
       <c r="E58">
-        <v>-0.8825917360637996</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9361947146412147</v>
+      </c>
+      <c r="F58">
+        <v>0.2270426967246589</v>
+      </c>
+      <c r="G58">
+        <v>-0.1661631315957854</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.09398773662010024</v>
+        <v>0.1605371959923065</v>
       </c>
       <c r="C59">
-        <v>0.258099039075207</v>
+        <v>-0.2028034479052299</v>
       </c>
       <c r="D59">
-        <v>-0.09134947081666848</v>
+        <v>-0.01146616950263367</v>
       </c>
       <c r="E59">
-        <v>0.01774972871107726</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.0168790990728484</v>
+      </c>
+      <c r="F59">
+        <v>0.0007365618626396242</v>
+      </c>
+      <c r="G59">
+        <v>0.04175654050366695</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.07835502994910332</v>
+        <v>0.287957024635433</v>
       </c>
       <c r="C60">
-        <v>0.1577831480180521</v>
+        <v>0.1077091932036091</v>
       </c>
       <c r="D60">
-        <v>0.1423665120774255</v>
+        <v>0.0117833540132658</v>
       </c>
       <c r="E60">
-        <v>0.06515929454566836</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.006279247205861141</v>
+      </c>
+      <c r="F60">
+        <v>-0.3439828784338847</v>
+      </c>
+      <c r="G60">
+        <v>-0.1504364656986378</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.001765239842512982</v>
+        <v>0.03805496182777671</v>
       </c>
       <c r="C61">
-        <v>-0.00642701391424897</v>
+        <v>0.06697708958771607</v>
       </c>
       <c r="D61">
-        <v>0.07490799057158098</v>
+        <v>0.005273159038444976</v>
       </c>
       <c r="E61">
-        <v>0.004819530438064217</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01390418312963045</v>
+      </c>
+      <c r="F61">
+        <v>-0.01597954050602694</v>
+      </c>
+      <c r="G61">
+        <v>0.09253823742741342</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007982372409027983</v>
+        <v>0.01531515410138489</v>
       </c>
       <c r="C63">
-        <v>-0.0005114809028430624</v>
+        <v>0.03041979022494057</v>
       </c>
       <c r="D63">
-        <v>0.02864945465300899</v>
+        <v>0.008481847567788092</v>
       </c>
       <c r="E63">
-        <v>0.01077309904898525</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.00130287633271681</v>
+      </c>
+      <c r="F63">
+        <v>0.01775842558219352</v>
+      </c>
+      <c r="G63">
+        <v>0.09463626001436561</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.01184939414741913</v>
+        <v>0.04780192173850105</v>
       </c>
       <c r="C64">
-        <v>0.01591972286216874</v>
+        <v>0.04729684635112429</v>
       </c>
       <c r="D64">
-        <v>0.06331662307014672</v>
+        <v>0.006208465329566469</v>
       </c>
       <c r="E64">
-        <v>0.01061135512370835</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.0005310288878392882</v>
+      </c>
+      <c r="F64">
+        <v>-0.007097851794917232</v>
+      </c>
+      <c r="G64">
+        <v>0.09106878611577857</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01839884323414673</v>
+        <v>0.07432757588662717</v>
       </c>
       <c r="C65">
-        <v>-0.002403048872414394</v>
+        <v>0.05956996037459864</v>
       </c>
       <c r="D65">
-        <v>0.1038777712443799</v>
+        <v>0.01647917097346041</v>
       </c>
       <c r="E65">
-        <v>0.02795769609609792</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.03374446973720827</v>
+      </c>
+      <c r="F65">
+        <v>-0.03148202016132105</v>
+      </c>
+      <c r="G65">
+        <v>0.03511863018195793</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.002841845614334518</v>
+        <v>0.05106852898756774</v>
       </c>
       <c r="C66">
-        <v>-0.03632261408874541</v>
+        <v>0.1086885594498461</v>
       </c>
       <c r="D66">
-        <v>0.1334778858810614</v>
+        <v>0.01148972269701658</v>
       </c>
       <c r="E66">
-        <v>-0.004542781037424565</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.03032206125379244</v>
+      </c>
+      <c r="F66">
+        <v>-0.03612174605114844</v>
+      </c>
+      <c r="G66">
+        <v>0.10494912110023</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.01127397032694211</v>
+        <v>0.05487964517694931</v>
       </c>
       <c r="C67">
-        <v>0.04153766492983367</v>
+        <v>0.03502225078489084</v>
       </c>
       <c r="D67">
-        <v>0.06912194588149476</v>
+        <v>-0.006093259729353565</v>
       </c>
       <c r="E67">
-        <v>0.007900000179595761</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.004742819106723139</v>
+      </c>
+      <c r="F67">
+        <v>0.01970657873945697</v>
+      </c>
+      <c r="G67">
+        <v>0.07444098102579486</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1090324955116077</v>
+        <v>0.1550107597981999</v>
       </c>
       <c r="C68">
-        <v>0.2462601021970176</v>
+        <v>-0.2692301184857952</v>
       </c>
       <c r="D68">
-        <v>-0.1435423410361558</v>
+        <v>0.006171229321578999</v>
       </c>
       <c r="E68">
-        <v>-0.02779411200669337</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.01226303370818758</v>
+      </c>
+      <c r="F68">
+        <v>0.03159416417816827</v>
+      </c>
+      <c r="G68">
+        <v>0.03198684940250964</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.005867065946589034</v>
+        <v>0.08217596056500182</v>
       </c>
       <c r="C69">
-        <v>0.03079506292897537</v>
+        <v>0.0711513062881665</v>
       </c>
       <c r="D69">
-        <v>0.0820083110356666</v>
+        <v>-0.008937181963459939</v>
       </c>
       <c r="E69">
-        <v>0.02445448046796742</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02239669264457586</v>
+      </c>
+      <c r="F69">
+        <v>0.03662601379276983</v>
+      </c>
+      <c r="G69">
+        <v>0.09812334845143032</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.0854208144180168</v>
+        <v>0.1409805995024535</v>
       </c>
       <c r="C71">
-        <v>0.2088653342613106</v>
+        <v>-0.2277692530495421</v>
       </c>
       <c r="D71">
-        <v>-0.09078530281731016</v>
+        <v>-0.002532075186135805</v>
       </c>
       <c r="E71">
-        <v>-0.02936660437153382</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.03252047791860107</v>
+      </c>
+      <c r="F71">
+        <v>0.01867528614939216</v>
+      </c>
+      <c r="G71">
+        <v>0.06976336384326974</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.001733462193007501</v>
+        <v>0.08447262276795428</v>
       </c>
       <c r="C72">
-        <v>0.02004303759147009</v>
+        <v>0.07182489482065554</v>
       </c>
       <c r="D72">
-        <v>0.1058872209358735</v>
+        <v>-0.008386702774118637</v>
       </c>
       <c r="E72">
-        <v>0.04390994414055326</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.006012492822670149</v>
+      </c>
+      <c r="F72">
+        <v>-0.03866564005860264</v>
+      </c>
+      <c r="G72">
+        <v>0.08470323501437357</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.08971885327793395</v>
+        <v>0.3756854529802097</v>
       </c>
       <c r="C73">
-        <v>0.1565433465845865</v>
+        <v>0.119231429306575</v>
       </c>
       <c r="D73">
-        <v>0.2644863307155076</v>
+        <v>0.02073495555966304</v>
       </c>
       <c r="E73">
-        <v>0.03774506920028523</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.0656347334703113</v>
+      </c>
+      <c r="F73">
+        <v>-0.5774842134124754</v>
+      </c>
+      <c r="G73">
+        <v>-0.2719044343195118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.01348941818910551</v>
+        <v>0.1047439959857378</v>
       </c>
       <c r="C74">
-        <v>0.04798810752470588</v>
+        <v>0.1091191389578465</v>
       </c>
       <c r="D74">
-        <v>0.1779304284752976</v>
+        <v>-0.009436279048342534</v>
       </c>
       <c r="E74">
-        <v>0.02015915355039672</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.006923835133242882</v>
+      </c>
+      <c r="F74">
+        <v>0.06935777892463264</v>
+      </c>
+      <c r="G74">
+        <v>0.08030987150457446</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.03684900112693541</v>
+        <v>0.2486844579063548</v>
       </c>
       <c r="C75">
-        <v>0.124186437414485</v>
+        <v>0.1524835306582787</v>
       </c>
       <c r="D75">
-        <v>0.3125492555823181</v>
+        <v>-0.03080861719676312</v>
       </c>
       <c r="E75">
-        <v>0.04337428765585227</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.05556433182478865</v>
+      </c>
+      <c r="F75">
+        <v>0.1782120329554744</v>
+      </c>
+      <c r="G75">
+        <v>-0.0274690492898821</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.01131969894309521</v>
+        <v>0.1192369358778407</v>
       </c>
       <c r="C76">
-        <v>0.06022691115946777</v>
+        <v>0.1095901928433682</v>
       </c>
       <c r="D76">
-        <v>0.2248018100375672</v>
+        <v>-0.0187336250023938</v>
       </c>
       <c r="E76">
-        <v>0.05364236531624138</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.03005300705317976</v>
+      </c>
+      <c r="F76">
+        <v>0.1102103758884043</v>
+      </c>
+      <c r="G76">
+        <v>0.05518630800020708</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01550022602578614</v>
+        <v>0.06764821373028945</v>
       </c>
       <c r="C77">
-        <v>0.008518405615462707</v>
+        <v>0.05996753893797848</v>
       </c>
       <c r="D77">
-        <v>0.07070064313322787</v>
+        <v>0.01088081260721483</v>
       </c>
       <c r="E77">
-        <v>-0.01228967777130784</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04083503152005188</v>
+      </c>
+      <c r="F77">
+        <v>-0.01315646462480439</v>
+      </c>
+      <c r="G77">
+        <v>0.06509636540935104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004378948626326904</v>
+        <v>0.04171129961000777</v>
       </c>
       <c r="C78">
-        <v>-0.000738047250974108</v>
+        <v>0.05166101966747097</v>
       </c>
       <c r="D78">
-        <v>0.0582960894588564</v>
+        <v>0.005510630383509973</v>
       </c>
       <c r="E78">
-        <v>-0.01289580987525323</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02270049170561616</v>
+      </c>
+      <c r="F78">
+        <v>-0.03772943563940926</v>
+      </c>
+      <c r="G78">
+        <v>0.09336675087698554</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01284166920217682</v>
+        <v>0.041972134307524</v>
       </c>
       <c r="C80">
-        <v>0.003983259604617789</v>
+        <v>0.0747426935440839</v>
       </c>
       <c r="D80">
-        <v>0.1624892642656019</v>
+        <v>0.01152279530387997</v>
       </c>
       <c r="E80">
-        <v>0.2917478813343581</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.02874374516354524</v>
+      </c>
+      <c r="F80">
+        <v>-0.01404097354634451</v>
+      </c>
+      <c r="G80">
+        <v>0.2194143876759518</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.02145067483915503</v>
+        <v>0.1373548014761601</v>
       </c>
       <c r="C81">
-        <v>0.06969930389894945</v>
+        <v>0.09596619940757482</v>
       </c>
       <c r="D81">
-        <v>0.1818231868692494</v>
+        <v>-0.0151461742339442</v>
       </c>
       <c r="E81">
-        <v>0.04483593179016438</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.03436526182103023</v>
+      </c>
+      <c r="F81">
+        <v>0.1303264648653774</v>
+      </c>
+      <c r="G81">
+        <v>0.02084710877838701</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1297940260766609</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.07706398311693738</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.008516853356696353</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.09059488776928271</v>
+      </c>
+      <c r="F82">
+        <v>0.04849896598186924</v>
+      </c>
+      <c r="G82">
+        <v>0.0576586591717663</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.01022108833050826</v>
+        <v>0.03616209206551044</v>
       </c>
       <c r="C83">
-        <v>0.01493585944517584</v>
+        <v>0.03016560497267511</v>
       </c>
       <c r="D83">
-        <v>0.03637739389010181</v>
+        <v>0.006007943663197492</v>
       </c>
       <c r="E83">
-        <v>-0.0195533909632211</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02857644452369679</v>
+      </c>
+      <c r="F83">
+        <v>-0.03215644120994618</v>
+      </c>
+      <c r="G83">
+        <v>0.06247566469814816</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.03266481157061945</v>
+        <v>0.212691628902303</v>
       </c>
       <c r="C85">
-        <v>0.07612174077515262</v>
+        <v>0.1456510322131215</v>
       </c>
       <c r="D85">
-        <v>0.2679295980510967</v>
+        <v>-0.01773919014207554</v>
       </c>
       <c r="E85">
-        <v>0.05683900546670961</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.09415904090755385</v>
+      </c>
+      <c r="F85">
+        <v>0.1324363934450656</v>
+      </c>
+      <c r="G85">
+        <v>-0.09131998170509857</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.009312250133320826</v>
+        <v>0.01278451396858472</v>
       </c>
       <c r="C86">
-        <v>0.007646455522974271</v>
+        <v>0.02837468119412853</v>
       </c>
       <c r="D86">
-        <v>0.05819811968814542</v>
+        <v>0.01210636916752551</v>
       </c>
       <c r="E86">
-        <v>-0.02863839085762819</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.04711939415315825</v>
+      </c>
+      <c r="F86">
+        <v>-0.02923588868252394</v>
+      </c>
+      <c r="G86">
+        <v>0.186500485409485</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.005106181125751496</v>
+        <v>0.02174500090261244</v>
       </c>
       <c r="C87">
-        <v>-0.01179193719237807</v>
+        <v>0.02309169315620058</v>
       </c>
       <c r="D87">
-        <v>0.05036766641967896</v>
+        <v>0.0116546058886605</v>
       </c>
       <c r="E87">
-        <v>-0.03127313466996342</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08549253359762971</v>
+      </c>
+      <c r="F87">
+        <v>-0.01278932102173455</v>
+      </c>
+      <c r="G87">
+        <v>0.1197932670388588</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.03270435002313613</v>
+        <v>0.09314720721020997</v>
       </c>
       <c r="C88">
-        <v>0.02048623599589841</v>
+        <v>0.06880428841411929</v>
       </c>
       <c r="D88">
-        <v>0.06060431826342884</v>
+        <v>0.02226796669092003</v>
       </c>
       <c r="E88">
-        <v>0.000230378981925454</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.006486493750208103</v>
+      </c>
+      <c r="F88">
+        <v>0.01999744492500424</v>
+      </c>
+      <c r="G88">
+        <v>0.09018380219301221</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1603373988357882</v>
+        <v>0.2342264410475434</v>
       </c>
       <c r="C89">
-        <v>0.3863255201426523</v>
+        <v>-0.3660208958789214</v>
       </c>
       <c r="D89">
-        <v>-0.1624529149526112</v>
+        <v>0.0001576283872871681</v>
       </c>
       <c r="E89">
-        <v>0.04014921275881353</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.01546860358717831</v>
+      </c>
+      <c r="F89">
+        <v>0.02497792266856621</v>
+      </c>
+      <c r="G89">
+        <v>0.07077604149132866</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1275853858254361</v>
+        <v>0.2089306146161152</v>
       </c>
       <c r="C90">
-        <v>0.3138497810425335</v>
+        <v>-0.3189933609026996</v>
       </c>
       <c r="D90">
-        <v>-0.1573077195540786</v>
+        <v>-0.004457448132491275</v>
       </c>
       <c r="E90">
-        <v>-0.001025054603610735</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.004621098663833848</v>
+      </c>
+      <c r="F90">
+        <v>0.05282783989825422</v>
+      </c>
+      <c r="G90">
+        <v>0.03852460587022962</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.02817260720979059</v>
+        <v>0.1859824751040366</v>
       </c>
       <c r="C91">
-        <v>0.1028732484295196</v>
+        <v>0.1397154856823207</v>
       </c>
       <c r="D91">
-        <v>0.2303934694192826</v>
+        <v>-0.02222581283759435</v>
       </c>
       <c r="E91">
-        <v>0.04827301179314842</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.05974954217052431</v>
+      </c>
+      <c r="F91">
+        <v>0.145843670095475</v>
+      </c>
+      <c r="G91">
+        <v>0.02440095736927494</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.09261577053288068</v>
+        <v>0.2002155266049047</v>
       </c>
       <c r="C92">
-        <v>0.3095936657305986</v>
+        <v>-0.2567864180173476</v>
       </c>
       <c r="D92">
-        <v>-0.05028918695366996</v>
+        <v>-0.03786557259854323</v>
       </c>
       <c r="E92">
-        <v>-0.06421521993975167</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.03780872901093057</v>
+      </c>
+      <c r="F92">
+        <v>0.05957959561188123</v>
+      </c>
+      <c r="G92">
+        <v>0.1257302843759095</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1295997524549291</v>
+        <v>0.2335848325057786</v>
       </c>
       <c r="C93">
-        <v>0.3330808896720922</v>
+        <v>-0.3139977933913389</v>
       </c>
       <c r="D93">
-        <v>-0.1232804396273788</v>
+        <v>-0.01128412767813653</v>
       </c>
       <c r="E93">
-        <v>-0.01722431993261547</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.00766718208925894</v>
+      </c>
+      <c r="F93">
+        <v>0.0401864030898263</v>
+      </c>
+      <c r="G93">
+        <v>0.05225793163780684</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.06836359671550404</v>
+        <v>0.3161435182377559</v>
       </c>
       <c r="C94">
-        <v>0.1476470878634109</v>
+        <v>0.1780483577071822</v>
       </c>
       <c r="D94">
-        <v>0.2864183788315692</v>
+        <v>-0.01684147999279572</v>
       </c>
       <c r="E94">
-        <v>0.105125255687382</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1709844992905643</v>
+      </c>
+      <c r="F94">
+        <v>0.4817412529198379</v>
+      </c>
+      <c r="G94">
+        <v>-0.415972914977993</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.001167993351357429</v>
+        <v>0.1012150664365322</v>
       </c>
       <c r="C95">
-        <v>0.0200824188233329</v>
+        <v>0.08650318606346054</v>
       </c>
       <c r="D95">
-        <v>0.1175607320239467</v>
+        <v>-0.01082012626976555</v>
       </c>
       <c r="E95">
-        <v>-0.1218726808986577</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.0714770354490198</v>
+      </c>
+      <c r="F95">
+        <v>-0.2038076388623566</v>
+      </c>
+      <c r="G95">
+        <v>-0.08124000568597083</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.04202526370880195</v>
+        <v>0.1969845759122285</v>
       </c>
       <c r="C98">
-        <v>0.1363973313499319</v>
+        <v>0.04709690924797245</v>
       </c>
       <c r="D98">
-        <v>0.1604608377949474</v>
+        <v>-0.01332129913005156</v>
       </c>
       <c r="E98">
-        <v>-0.03706195348079844</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06649806736407932</v>
+      </c>
+      <c r="F98">
+        <v>-0.2406639605743301</v>
+      </c>
+      <c r="G98">
+        <v>-0.0006751112827005737</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +2994,62 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01095758368437759</v>
+        <v>0.009126521725959407</v>
       </c>
       <c r="C101">
-        <v>0.01118922054725077</v>
+        <v>0.02285245909202361</v>
       </c>
       <c r="D101">
-        <v>0.02057414112000184</v>
+        <v>0.008778734121600447</v>
       </c>
       <c r="E101">
-        <v>-0.006425883537150068</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.0007013870378998316</v>
+      </c>
+      <c r="F101">
+        <v>0.01801565909410452</v>
+      </c>
+      <c r="G101">
+        <v>0.09438896330082479</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.02401145675634817</v>
+        <v>0.1163977614135174</v>
       </c>
       <c r="C102">
-        <v>0.03858472537127711</v>
+        <v>0.08356834227171812</v>
       </c>
       <c r="D102">
-        <v>0.1310542468591951</v>
+        <v>0.0007219944626200997</v>
       </c>
       <c r="E102">
-        <v>0.02732236776397405</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03397310009836576</v>
+      </c>
+      <c r="F102">
+        <v>0.04342585596781407</v>
+      </c>
+      <c r="G102">
+        <v>0.009621972890728686</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,22 +3063,34 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9224683611928501</v>
+        <v>0.02105482057862638</v>
       </c>
       <c r="C104">
-        <v>-0.3605146146886177</v>
+        <v>-0.02941938003954745</v>
       </c>
       <c r="D104">
-        <v>-0.03658802021033948</v>
+        <v>0.9878285314686462</v>
       </c>
       <c r="E104">
-        <v>0.02216372243981548</v>
+        <v>-0.04615237758423971</v>
+      </c>
+      <c r="F104">
+        <v>0.03598096445054325</v>
+      </c>
+      <c r="G104">
+        <v>-0.03521957165673549</v>
       </c>
     </row>
   </sheetData>
